--- a/biology/Zoologie/Altise_du_maïs/Altise_du_maïs.xlsx
+++ b/biology/Zoologie/Altise_du_maïs/Altise_du_maïs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altise_du_ma%C3%AFs</t>
+          <t>Altise_du_maïs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetocnema pulicaria
-L’altise du maïs (Chaetocnema pulicaria) est une espèce d'insectes coléoptères de la famille des Chrysomelidae, présente en Amérique du Nord (États-Unis[1] et Canada[2]).
+L’altise du maïs (Chaetocnema pulicaria) est une espèce d'insectes coléoptères de la famille des Chrysomelidae, présente en Amérique du Nord (États-Unis et Canada).
 Cet insecte est le principal vecteur de la bactérie, Pantoea stewart de petits insectes noirs (2 mm, 1/12 po) agent pathogène responsable de la flétrissure de Stewart, maladie endémique des cultures de maïs aux États-Unis.
 Généralité : 
-Les attaques des altises du maïs se traduisent par de fines et longues lésions en forme de griffures sur les feuilles du maïs. Elles transmettent la bactérie du flétrissement de Stewart. Les dégâts de nutrition n’entraînent pas par eux-mêmes de pertes de rendement car la feuille est impliquée à 20 % dans le rendement et le grain à 50 % et la tige (avec la fleur) 30 %. Le si peu de feuilles que les altises attaquent n’a pas d’incidence sur les rendements[3]. 
+Les attaques des altises du maïs se traduisent par de fines et longues lésions en forme de griffures sur les feuilles du maïs. Elles transmettent la bactérie du flétrissement de Stewart. Les dégâts de nutrition n’entraînent pas par eux-mêmes de pertes de rendement car la feuille est impliquée à 20 % dans le rendement et le grain à 50 % et la tige (avec la fleur) 30 %. Le si peu de feuilles que les altises attaquent n’a pas d’incidence sur les rendements. 
 'Période d’activité :'
 Les altises hivernent dans les 5 premiers cm du sol ou des couches de résidus de culture (tiges de blé/colza/maïs…). Elles sortent de leur lieu d’hivernation (les 5 premiers centimètres du sol) quand les températures atteignent 18 °C. La première période de grande activité correspond à la fin du mois de juin ou (sauf cas exceptionnel, les températures seraient plus élevée avant la fin du mois de juin). Les hivers doux favorisent la survie des altises et augmentent de ce fait le risque de transmission du flétrissement de Stewart.
 'Notes de surveillance :'
